--- a/catalogo/comparacion/datos_nuevos.xlsx
+++ b/catalogo/comparacion/datos_nuevos.xlsx
@@ -40,61 +40,61 @@
     <t xml:space="preserve">X5</t>
   </si>
   <si>
-    <t xml:space="preserve">2012-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07</t>
+    <t xml:space="preserve">2012/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/07</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,7 +343,7 @@
         <v>100.988662019293</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -363,7 +363,7 @@
         <v>100.95936558348</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -383,7 +383,7 @@
         <v>100.89570289195</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -403,7 +403,7 @@
         <v>100.787527397555</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -423,7 +423,7 @@
         <v>100.653850061827</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -443,7 +443,7 @@
         <v>100.49740360101</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -463,7 +463,7 @@
         <v>100.354910032981</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -483,7 +483,7 @@
         <v>100.219823841409</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -503,7 +503,7 @@
         <v>100.092089526028</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -523,7 +523,7 @@
         <v>99.964137134617</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -543,7 +543,7 @@
         <v>99.828083598572</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -563,7 +563,7 @@
         <v>99.709183950156</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -583,7 +583,7 @@
         <v>99.631441396572</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -603,7 +603,7 @@
         <v>99.572924409427</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
